--- a/tests/resources/test_costs_schedule_matrix.xlsx
+++ b/tests/resources/test_costs_schedule_matrix.xlsx
@@ -78,17 +78,17 @@
           </spPr>
           <xVal>
             <numRef>
-              <f>'Sheet'!$C$3</f>
+              <f>'Sheet'!$C$3:$C$2</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$D$3</f>
+              <f>'Sheet'!$D$3:$D$2</f>
             </numRef>
           </yVal>
           <bubbleSize>
             <numRef>
-              <f>'Sheet'!$E$3</f>
+              <f>'Sheet'!$E$3:$E$2</f>
             </numRef>
           </bubbleSize>
         </ser>
@@ -108,17 +108,17 @@
           </spPr>
           <xVal>
             <numRef>
-              <f>'Sheet'!$C$4:$C$3</f>
+              <f>'Sheet'!$C$3:$C$2</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$D$4:$D$3</f>
+              <f>'Sheet'!$D$3:$D$2</f>
             </numRef>
           </yVal>
           <bubbleSize>
             <numRef>
-              <f>'Sheet'!$E$4:$E$3</f>
+              <f>'Sheet'!$E$3:$E$2</f>
             </numRef>
           </bubbleSize>
         </ser>
@@ -138,17 +138,17 @@
           </spPr>
           <xVal>
             <numRef>
-              <f>'Sheet'!$C$4:$C$3</f>
+              <f>'Sheet'!$C$3:$C$2</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$D$4:$D$3</f>
+              <f>'Sheet'!$D$3:$D$2</f>
             </numRef>
           </yVal>
           <bubbleSize>
             <numRef>
-              <f>'Sheet'!$E$4:$E$3</f>
+              <f>'Sheet'!$E$3:$E$2</f>
             </numRef>
           </bubbleSize>
         </ser>
@@ -168,17 +168,17 @@
           </spPr>
           <xVal>
             <numRef>
-              <f>'Sheet'!$C$4:$C$3</f>
+              <f>'Sheet'!$C$3:$C$2</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$D$4:$D$3</f>
+              <f>'Sheet'!$D$3:$D$2</f>
             </numRef>
           </yVal>
           <bubbleSize>
             <numRef>
-              <f>'Sheet'!$E$4:$E$3</f>
+              <f>'Sheet'!$E$3:$E$2</f>
             </numRef>
           </bubbleSize>
         </ser>
@@ -198,17 +198,17 @@
           </spPr>
           <xVal>
             <numRef>
-              <f>'Sheet'!$C$4:$C$3</f>
+              <f>'Sheet'!$C$3:$C$2</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet'!$D$4:$D$3</f>
+              <f>'Sheet'!$D$3:$D$2</f>
             </numRef>
           </yVal>
           <bubbleSize>
             <numRef>
-              <f>'Sheet'!$E$4:$E$3</f>
+              <f>'Sheet'!$E$3:$E$2</f>
             </numRef>
           </bubbleSize>
         </ser>
@@ -563,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H3"/>
+  <dimension ref="B2:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,37 +608,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>F9</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6751.6</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Amber</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Standard A</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Standard H</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
